--- a/datos_cancer_ (1).xlsx
+++ b/datos_cancer_ (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emanuel G. Muñoz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan23\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62926D2A-BBDB-4CC1-BCEC-288AE2F400F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7784602-93CC-4628-9482-659E91C48268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F384FD49-477B-402D-B92F-FD4EFDFEC249}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F384FD49-477B-402D-B92F-FD4EFDFEC249}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -125,7 +119,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -423,16 +417,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5949EF4-B6CD-4AEB-8974-8FC04C78863A}">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -467,7 +461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -502,7 +496,7 @@
         <v>7.8710000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -537,7 +531,7 @@
         <v>5.6669999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -572,7 +566,7 @@
         <v>5.9990000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -607,7 +601,7 @@
         <v>9.7439999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -642,7 +636,7 @@
         <v>5.883E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -677,7 +671,7 @@
         <v>5.3949999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -712,7 +706,7 @@
         <v>5.7660000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -747,7 +741,7 @@
         <v>6.8110000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -782,7 +776,7 @@
         <v>6.905E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -817,7 +811,7 @@
         <v>7.0319999999999994E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -852,7 +846,7 @@
         <v>5.2780000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -887,7 +881,7 @@
         <v>6.3299999999999995E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -922,7 +916,7 @@
         <v>6.1249999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -957,7 +951,7 @@
         <v>5.8630000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -992,7 +986,7 @@
         <v>5.5039999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +1021,7 @@
         <v>6.4189999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v>5.5870000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +1091,7 @@
         <v>6.8699999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1126,7 @@
         <v>6.343E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1161,7 @@
         <v>6.7820000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1196,7 @@
         <v>6.1769999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1231,7 @@
         <v>6.0490000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +1266,7 @@
         <v>6.5030000000000004E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1307,7 +1301,7 @@
         <v>6.7769999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1336,7 @@
         <v>6.0429999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1377,7 +1371,7 @@
         <v>5.7180000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1412,7 +1406,7 @@
         <v>5.8880000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1447,7 +1441,7 @@
         <v>5.953E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1482,7 +1476,7 @@
         <v>6.1100000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1517,7 +1511,7 @@
         <v>6.3100000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1552,7 +1546,7 @@
         <v>5.6840000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1587,7 +1581,7 @@
         <v>5.9069999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1622,7 +1616,7 @@
         <v>5.9610000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1657,7 +1651,7 @@
         <v>6.7580000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1692,7 +1686,7 @@
         <v>5.5010000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1727,7 +1721,7 @@
         <v>7.1870000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1756,7 @@
         <v>6.9599999999999995E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1797,7 +1791,7 @@
         <v>6.7570000000000005E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1832,7 +1826,7 @@
         <v>7.2919999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1867,7 +1861,7 @@
         <v>6.9629999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +1896,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1937,7 +1931,7 @@
         <v>6.6540000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -1972,7 +1966,7 @@
         <v>6.8989999999999996E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2007,7 +2001,7 @@
         <v>5.6669999999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2042,7 +2036,7 @@
         <v>8.0460000000000004E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2077,7 +2071,7 @@
         <v>5.6529999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2112,7 +2106,7 @@
         <v>5.4609999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -2147,7 +2141,7 @@
         <v>8.9800000000000005E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2182,7 +2176,7 @@
         <v>6.4869999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2217,7 +2211,7 @@
         <v>6.5659999999999996E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -2252,7 +2246,7 @@
         <v>5.9139999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2287,7 +2281,7 @@
         <v>5.391E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2322,7 +2316,7 @@
         <v>6.6409999999999997E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2357,7 +2351,7 @@
         <v>6.6729999999999998E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2392,7 +2386,7 @@
         <v>8.1420000000000006E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2427,7 +2421,7 @@
         <v>5.9970000000000002E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -2462,7 +2456,7 @@
         <v>7.0050000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -2497,7 +2491,7 @@
         <v>6.9019999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2532,7 +2526,7 @@
         <v>6.7820000000000005E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2567,7 +2561,7 @@
         <v>7.2239999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2602,7 +2596,7 @@
         <v>5.9679999999999997E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2637,7 +2631,7 @@
         <v>6.0220000000000003E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2672,7 +2666,7 @@
         <v>5.636E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2707,7 +2701,7 @@
         <v>5.629E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -2742,7 +2736,7 @@
         <v>6.404E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -2777,7 +2771,7 @@
         <v>6.3460000000000003E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -2812,7 +2806,7 @@
         <v>5.8659999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2847,7 +2841,7 @@
         <v>6.0970000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -2882,7 +2876,7 @@
         <v>5.3179999999999998E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -2917,7 +2911,7 @@
         <v>5.7099999999999998E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2952,7 +2946,7 @@
         <v>6.2839999999999993E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2987,7 +2981,7 @@
         <v>5.6489999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -3022,7 +3016,7 @@
         <v>6.6350000000000006E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3057,7 +3051,7 @@
         <v>6.8900000000000003E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3086,7 @@
         <v>6.5820000000000004E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3127,7 +3121,7 @@
         <v>6.3899999999999998E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3162,7 +3156,7 @@
         <v>5.8709999999999998E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -3197,7 +3191,7 @@
         <v>7.8179999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -3232,7 +3226,7 @@
         <v>5.6770000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3261,7 @@
         <v>6.3219999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -3302,7 +3296,7 @@
         <v>6.4810000000000006E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3337,7 +3331,7 @@
         <v>7.6920000000000002E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -3372,7 +3366,7 @@
         <v>6.5199999999999994E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -3407,7 +3401,7 @@
         <v>6.0659999999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3442,7 +3436,7 @@
         <v>7.0389999999999994E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -3477,7 +3471,7 @@
         <v>6.5290000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -3512,7 +3506,7 @@
         <v>7.0650000000000004E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3547,7 +3541,7 @@
         <v>7.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -3582,7 +3576,7 @@
         <v>7.7689999999999995E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -3617,7 +3611,7 @@
         <v>7.782E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -3652,7 +3646,7 @@
         <v>7.6329999999999995E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -3687,7 +3681,7 @@
         <v>6.1940000000000002E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -3722,7 +3716,7 @@
         <v>7.1629999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -3757,7 +3751,7 @@
         <v>6.7680000000000004E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -3792,7 +3786,7 @@
         <v>7.331E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3827,7 +3821,7 @@
         <v>5.0250000000000003E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -3862,7 +3856,7 @@
         <v>6.1129999999999997E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3897,7 +3891,7 @@
         <v>6.2129999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3932,7 +3926,7 @@
         <v>6.8769999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -3967,7 +3961,7 @@
         <v>6.4019999999999994E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -4002,7 +3996,7 @@
         <v>5.8229999999999997E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -4037,7 +4031,7 @@
         <v>5.8900000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -4072,7 +4066,7 @@
         <v>6.13E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -4107,7 +4101,7 @@
         <v>5.0439999999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -4142,7 +4136,7 @@
         <v>6.4670000000000005E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4177,7 +4171,7 @@
         <v>6.1129999999999997E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -4212,7 +4206,7 @@
         <v>6.4710000000000004E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -4247,7 +4241,7 @@
         <v>5.7959999999999998E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -4282,7 +4276,7 @@
         <v>5.8909999999999997E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -4317,7 +4311,7 @@
         <v>5.7230000000000003E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -4352,7 +4346,7 @@
         <v>5.7270000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -4387,7 +4381,7 @@
         <v>6.0650000000000003E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -4422,7 +4416,7 @@
         <v>5.9450000000000003E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -4457,7 +4451,7 @@
         <v>5.8650000000000001E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -4492,7 +4486,7 @@
         <v>6.216E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -4527,7 +4521,7 @@
         <v>6.0720000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -4562,7 +4556,7 @@
         <v>6.4219999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -4597,7 +4591,7 @@
         <v>6.2480000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>11</v>
       </c>
